--- a/ConvolutionalNeuralNetworkTester/Measurements.xlsx
+++ b/ConvolutionalNeuralNetworkTester/Measurements.xlsx
@@ -365,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -392,8 +392,11 @@
       <c r="I2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -412,8 +415,11 @@
       <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -432,8 +438,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -452,8 +461,11 @@
       <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -472,8 +484,11 @@
       <c r="I6">
         <v>1500.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -492,8 +507,11 @@
       <c r="I7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -511,6 +529,9 @@
       </c>
       <c r="I8" s="1">
         <v>0.65</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.82799999999999996</v>
       </c>
     </row>
   </sheetData>
